--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.57</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -706,25 +786,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.03</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1352,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1368,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.79</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1384,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.47</v>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1433,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1555,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1571,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1618,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1634,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1555,14 +1650,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
@@ -1571,14 +1666,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.79</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
@@ -1587,13 +1682,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,205 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2600</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1587</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D6" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D7" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0454</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+      <c r="D8" t="n">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -665,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -716,150 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>519165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>新华鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>45.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2599</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2157</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2045</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1056</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -924,32 +750,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>90.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5990</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -962,36 +788,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.87</t>
+          <t>90.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5633</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1000,112 +826,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161123</t>
+          <t>519165</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达并购重组指数（LOF）</t>
+          <t>新华鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>74.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2028</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1373</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1170,36 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>519165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>新华鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>64.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4682</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +984,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1264,36 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519165</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华鑫利灵活配置混合</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.07</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.4682</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,7 +1078,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1358,32 +1108,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.5990</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1396,36 +1146,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.41</t>
+          <t>98.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.5633</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1434,36 +1184,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519165</t>
+          <t>161123</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新华鑫利灵活配置混合</t>
+          <t>易方达并购重组指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.84</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.2028</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,7 +1324,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1528,36 +1354,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519165</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华鑫利灵活配置混合</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.16</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.2599</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1571,144 +1511,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.54</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +489,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.79</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -671,17 +688,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.16</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,6 +711,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -856,100 +967,6 @@
       </c>
       <c r="H4" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519165</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>新华鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1001,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1014,36 +1031,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>519165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>新华鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>64.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4682</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1052,6 +1069,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1297,7 +1408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002075-沙钢股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.79</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -688,12 +913,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>22.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -702,7 +927,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -782,17 +1007,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.16</t>
+          <t>25.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -805,6 +1030,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -967,100 +1286,6 @@
       </c>
       <c r="H4" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519165</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>新华鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1320,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1125,36 +1350,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>519165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>新华鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>64.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4682</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1163,6 +1388,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1408,7 +1727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1614,212 +1933,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达并购重组指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2600</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1587</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0454</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>